--- a/report.xlsx
+++ b/report.xlsx
@@ -83,7 +83,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -97,6 +97,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.694382022471913"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="23.694382022471913"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="26.894382022471913"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="33.294382022471915"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -140,31 +141,39 @@
           <t>Tempo total no banco</t>
         </is>
       </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Tempo do Operador Ocioso</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -172,25 +181,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -198,207 +210,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>87</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>97</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>111</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>114</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>114</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>125</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>11</v>
+      <c r="I4" s="4" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -152,28 +152,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -181,28 +181,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -213,25 +213,25 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -83,7 +83,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -152,28 +152,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -181,25 +181,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>14</v>
@@ -210,28 +210,521 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>235</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>244</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>20</v>
+      <c r="B21" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>259</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>128</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>274</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -83,7 +83,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -91,13 +91,12 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.89438202247191"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="26.894382022471913"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.49438202247191"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.29438202247191"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="30.094382022471912"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.894382022471913"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="39.69438202247191"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.694382022471913"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.694382022471913"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.49438202247191"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="26.894382022471913"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="33.294382022471915"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -113,7 +112,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Chegada</t>
+          <t>Chegada no relógio</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -123,7 +122,7 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Inicío do atendimento</t>
+          <t>Inicío do atendimento no relógio</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
@@ -133,17 +132,12 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Fim do atendimento</t>
+          <t>Fim do atendimento no relógio</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Tempo total no banco</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Tempo do Operador Ocioso</t>
         </is>
       </c>
     </row>
@@ -152,28 +146,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -181,28 +172,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -210,28 +198,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -239,28 +224,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -268,28 +250,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -297,28 +276,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -326,28 +302,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -355,28 +328,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -384,28 +354,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -413,28 +380,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -442,28 +406,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -471,28 +432,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>81</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -500,28 +458,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -529,28 +484,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -558,28 +510,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>106</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -587,28 +536,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>113</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>107</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -616,28 +562,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>122</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -645,28 +588,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>125</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -674,28 +614,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>134</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -703,28 +640,93 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>143</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v>131</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Soma: </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="str">
+        <f>SUM(B2:B11)</f>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="str">
+        <f>SUM(D2:D11)</f>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f>SUM(F2:F11)</f>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="str">
+        <f>SUM(H2:H11)</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Média: </t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="str">
+        <f>AVERAGE(B2:B11)</f>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f>AVERAGE(D2:D11)</f>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f>AVERAGE(F2:F11)</f>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="str">
+        <f>AVERAGE(H2:H11)</f>
       </c>
     </row>
   </sheetData>
